--- a/Remaining Task list.xlsx
+++ b/Remaining Task list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\TabletopDiceMaster\TabletopDiceMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC24100-740D-490A-B411-12F05A70D12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2165EDE9-2030-433F-A704-A657E625362F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4B36949-4507-460E-9417-04DC2D76546E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>DiceMaster</t>
   </si>
@@ -99,18 +99,12 @@
     <t>Add ICONS</t>
   </si>
   <si>
-    <t>Filled Star</t>
-  </si>
-  <si>
     <t>Rename</t>
   </si>
   <si>
     <t>APP Icon</t>
   </si>
   <si>
-    <t>Empty Star</t>
-  </si>
-  <si>
     <t>Advanced functions?</t>
   </si>
   <si>
@@ -118,6 +112,9 @@
   </si>
   <si>
     <t>Additional notes</t>
+  </si>
+  <si>
+    <t>Add Constructor to enable history objects to be retrieved</t>
   </si>
 </sst>
 </file>
@@ -140,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +168,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -272,11 +275,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -288,6 +288,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39556F90-3E27-487C-97E1-8BEEEDE8C30A}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,211 +626,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="11" t="s">
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10" t="s">
-        <v>29</v>
-      </c>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
